--- a/biology/Médecine/Abul_Qasim_ibn_Mohammed_al-Ghassani/Abul_Qasim_ibn_Mohammed_al-Ghassani.xlsx
+++ b/biology/Médecine/Abul_Qasim_ibn_Mohammed_al-Ghassani/Abul_Qasim_ibn_Mohammed_al-Ghassani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abul Qasim ibn Mohammed ibn Ibrahim al-Wazir al-Ghassani al-Andalusi (1548-1610) était un célèbre médecin à la cour des Saadiens[1], qui vécut à Marrakech et Fès. 
-Après qu'il a étudié la médecine avec son père, il est considéré comme le chef des médecins et des pharmaciens à Marrakech[2]. Il est l'auteur d'une polémique anti-Chrétienne, Apología contra los artículos de la ley Cristiana, rédigés à l'ordre de Mulay Zaidan[3] et probablement de Hadiqat al-azhar fi mahiyyat al-ushb wa-l-aqqar (Jardin de Fleurs dans l'Explication du Caractère des Herbes et des Médicaments), un traité sur la pharmacologie et la botanique[4]. 
-Il est l'envoyé aux Pays-Bas du Sultan Marocain Mulay Zeidan. Lui succèdent dans ce rôle Al-Hajari et plus tard Yusuf Biscaino[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abul Qasim ibn Mohammed ibn Ibrahim al-Wazir al-Ghassani al-Andalusi (1548-1610) était un célèbre médecin à la cour des Saadiens, qui vécut à Marrakech et Fès. 
+Après qu'il a étudié la médecine avec son père, il est considéré comme le chef des médecins et des pharmaciens à Marrakech. Il est l'auteur d'une polémique anti-Chrétienne, Apología contra los artículos de la ley Cristiana, rédigés à l'ordre de Mulay Zaidan et probablement de Hadiqat al-azhar fi mahiyyat al-ushb wa-l-aqqar (Jardin de Fleurs dans l'Explication du Caractère des Herbes et des Médicaments), un traité sur la pharmacologie et la botanique. 
+Il est l'envoyé aux Pays-Bas du Sultan Marocain Mulay Zeidan. Lui succèdent dans ce rôle Al-Hajari et plus tard Yusuf Biscaino.
 Un hôpital de Fès porte son nom.
 </t>
         </is>
